--- a/eagle/common/bom-ex/partsdb.xlsx
+++ b/eagle/common/bom-ex/partsdb.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="163">
   <si>
     <t>Mfg Part Num</t>
   </si>
@@ -265,13 +265,256 @@
   </si>
   <si>
     <t>ESD Suppressors 5.5V DUAL R-R ESD ULTRA LOW CAP</t>
+  </si>
+  <si>
+    <t>667-EVQ-PQHB55</t>
+  </si>
+  <si>
+    <t>EVQ-PQHB55</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>Tactile Switches Super small sized S Light Touch Switch</t>
+  </si>
+  <si>
+    <t>1N4148WSFL-G3-08</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductors</t>
+  </si>
+  <si>
+    <t>78-1N4148WSFL-G3-08</t>
+  </si>
+  <si>
+    <t>Diodes - General Purpose, Power, Switching 100volt 350mA 4ns</t>
+  </si>
+  <si>
+    <t>81-GRM188R61E105KA12</t>
+  </si>
+  <si>
+    <t>GRM188R61E105KA12D</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0603 1uF 25volts X5R 10%</t>
+  </si>
+  <si>
+    <t>594-MCT06030C2201FP5</t>
+  </si>
+  <si>
+    <t>Vishay / Beyschlag</t>
+  </si>
+  <si>
+    <t>MCT06030C2201FP500</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD .1W 2.2Kohm 1% 0603 50ppm Auto</t>
+  </si>
+  <si>
+    <t>81-GRM188R61E225KA2D</t>
+  </si>
+  <si>
+    <t>GRM188R61E225KA12D</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0603 2.2uF 25volts X5R 10%</t>
+  </si>
+  <si>
+    <t>594-MCT06030C4701FP5</t>
+  </si>
+  <si>
+    <t>MCT06030C4701FP500</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD .1W 4.7Kohms 1% 0603 50ppm Auto</t>
+  </si>
+  <si>
+    <t>859-6N138STA1</t>
+  </si>
+  <si>
+    <t>6N138S-TA1</t>
+  </si>
+  <si>
+    <t>Lite-On</t>
+  </si>
+  <si>
+    <t>High Speed Optocouplers Darlington 100KBd Transistor Output</t>
+  </si>
+  <si>
+    <t>858-67WR10KLF</t>
+  </si>
+  <si>
+    <t>67WR10KLF</t>
+  </si>
+  <si>
+    <t>BI Technologies / TT Electronics</t>
+  </si>
+  <si>
+    <t>Trimmer Resistors - Through Hole 3/8" Squ 10K 10%</t>
+  </si>
+  <si>
+    <t>81-GRM21BR71A106KA3L</t>
+  </si>
+  <si>
+    <t>GRM21BR71A106KA73L</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0805 10uF 10volts X7R + - 10%</t>
+  </si>
+  <si>
+    <t>77-VJ0603A180JXACBC</t>
+  </si>
+  <si>
+    <t>VJ0603A180JXACW1BC</t>
+  </si>
+  <si>
+    <t>Vishay / Vitramon</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0603 18pF 50volts C0G 5%</t>
+  </si>
+  <si>
+    <t>81-GRM39C200J50</t>
+  </si>
+  <si>
+    <t>GRM1885C1H200JA01D</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0603 20pF 50volts C0G 5%</t>
+  </si>
+  <si>
+    <t>594-MCT06030C2209FP5</t>
+  </si>
+  <si>
+    <t>MCT06030C2209FP500</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD .1W 22ohm 1% 0603 50ppm Auto</t>
+  </si>
+  <si>
+    <t>652-PEC12R-4225F-S24</t>
+  </si>
+  <si>
+    <t>PEC12R-4225F-S0024</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>Encoders 25mm SHAFT w/SWITCH</t>
+  </si>
+  <si>
+    <t>78-VLMS1300-GS08</t>
+  </si>
+  <si>
+    <t>VLMS1300-GS08</t>
+  </si>
+  <si>
+    <t>Standard LEDs - SMD Super Red Clear Non-Diff</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-10K-E3</t>
+  </si>
+  <si>
+    <t>CRCW060310K0FKEA</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/10watt 10Kohms 1%</t>
+  </si>
+  <si>
+    <t>594-MCT06030C6800FP5</t>
+  </si>
+  <si>
+    <t>MCT06030C6800FP500</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD .1W 680ohm 1% 0603 50ppm Auto</t>
+  </si>
+  <si>
+    <t>57PC5F</t>
+  </si>
+  <si>
+    <t>Switchcraft</t>
+  </si>
+  <si>
+    <t>502-57PC5F</t>
+  </si>
+  <si>
+    <t>DIN Connectors 5 COND 180 DIN CONN</t>
+  </si>
+  <si>
+    <t>612-TL1100</t>
+  </si>
+  <si>
+    <t>TL1100F160Q</t>
+  </si>
+  <si>
+    <t>E-Switch</t>
+  </si>
+  <si>
+    <t>Tactile Switches 12X7.3MM 160GF</t>
+  </si>
+  <si>
+    <t>688-RK09D1130C2P</t>
+  </si>
+  <si>
+    <t>ALPS</t>
+  </si>
+  <si>
+    <t>RK09D1130C2P</t>
+  </si>
+  <si>
+    <t>Potentiometers 9MM 10K V/ADJ</t>
+  </si>
+  <si>
+    <t>594-MCT06030Z0000ZP5</t>
+  </si>
+  <si>
+    <t>MCT06030Z0000ZP500</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD Zero ohm Jumper</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-1.0K-E3</t>
+  </si>
+  <si>
+    <t>CRCW06031K00FKEA</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/10watt 1.0Kohms 1%</t>
+  </si>
+  <si>
+    <t>594-MCT06030C2200FP5</t>
+  </si>
+  <si>
+    <t>MCT06030C2200FP500</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD .1W 220ohm 1% 0603 50ppm Auto</t>
+  </si>
+  <si>
+    <t>77-VJ0603Y104JXJPBC</t>
+  </si>
+  <si>
+    <t>VJ0603Y104JXJPW1BC</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0603 0.1uF 16volts X7R 5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,6 +549,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,7 +611,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -375,6 +623,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -714,7 +963,7 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1046,84 +1295,372 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
+      <c r="A32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="1:6">
+      <c r="A33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="1:6">
+      <c r="A34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="1:6">
+      <c r="A36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="6:6">
+    <row r="37" spans="1:6">
+      <c r="A37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" spans="1:6">
+      <c r="A38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="1:6">
+      <c r="A39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="6:6">
+    <row r="40" spans="1:6">
+      <c r="A40" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="6:6">
+    <row r="41" spans="1:6">
+      <c r="A41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="6:6">
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="6:6">
+    <row r="43" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="6:6">
+    <row r="44" spans="1:6">
+      <c r="A44" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="6:6">
+    <row r="45" spans="1:6">
+      <c r="A45" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="6:6">
+    <row r="46" spans="1:6">
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="6:6">
+    <row r="47" spans="1:6">
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="6:6">
+    <row r="48" spans="1:6">
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="6:6">
@@ -1328,6 +1865,65 @@
     <hyperlink ref="D21" r:id="rId54" tooltip="Click to view additional information on this product."/>
     <hyperlink ref="A21" r:id="rId55"/>
     <hyperlink ref="B21" r:id="rId56"/>
+    <hyperlink ref="A23" r:id="rId57"/>
+    <hyperlink ref="B23" r:id="rId58"/>
+    <hyperlink ref="D23" r:id="rId59" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="D24" r:id="rId60" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A24" r:id="rId61"/>
+    <hyperlink ref="B24" r:id="rId62"/>
+    <hyperlink ref="D25" r:id="rId63" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="B25" r:id="rId64"/>
+    <hyperlink ref="A25" r:id="rId65"/>
+    <hyperlink ref="D26" r:id="rId66" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A26" r:id="rId67"/>
+    <hyperlink ref="D27" r:id="rId68" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A27" r:id="rId69"/>
+    <hyperlink ref="D28" r:id="rId70" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A28" r:id="rId71"/>
+    <hyperlink ref="B28" r:id="rId72"/>
+    <hyperlink ref="D29" r:id="rId73" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A29" r:id="rId74"/>
+    <hyperlink ref="B29" r:id="rId75"/>
+    <hyperlink ref="D30" r:id="rId76" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A30" r:id="rId77"/>
+    <hyperlink ref="B30" r:id="rId78"/>
+    <hyperlink ref="D31" r:id="rId79" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A31" r:id="rId80"/>
+    <hyperlink ref="B31" r:id="rId81"/>
+    <hyperlink ref="D32" r:id="rId82" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A32" r:id="rId83"/>
+    <hyperlink ref="B32" r:id="rId84"/>
+    <hyperlink ref="D33" r:id="rId85" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A33" r:id="rId86"/>
+    <hyperlink ref="B33" r:id="rId87"/>
+    <hyperlink ref="B34" r:id="rId88"/>
+    <hyperlink ref="D35" r:id="rId89" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A35" r:id="rId90"/>
+    <hyperlink ref="D36" r:id="rId91" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A36" r:id="rId92"/>
+    <hyperlink ref="B36" r:id="rId93"/>
+    <hyperlink ref="D37" r:id="rId94" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A37" r:id="rId95"/>
+    <hyperlink ref="B37" r:id="rId96"/>
+    <hyperlink ref="A38" r:id="rId97"/>
+    <hyperlink ref="B38" r:id="rId98"/>
+    <hyperlink ref="D38" r:id="rId99" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="D39" r:id="rId100" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A39" r:id="rId101"/>
+    <hyperlink ref="B39" r:id="rId102"/>
+    <hyperlink ref="D41" r:id="rId103" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A41" r:id="rId104"/>
+    <hyperlink ref="B41" r:id="rId105"/>
+    <hyperlink ref="D42" r:id="rId106" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A42" r:id="rId107"/>
+    <hyperlink ref="D43" r:id="rId108" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A43" r:id="rId109"/>
+    <hyperlink ref="D44" r:id="rId110" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A44" r:id="rId111"/>
+    <hyperlink ref="B44" r:id="rId112"/>
+    <hyperlink ref="D45" r:id="rId113" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="A45" r:id="rId114"/>
+    <hyperlink ref="B45" r:id="rId115"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
